--- a/APP数据分布.xlsx
+++ b/APP数据分布.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="12380" activeTab="2"/>
+    <workbookView windowWidth="26860" windowHeight="12380"/>
   </bookViews>
   <sheets>
     <sheet name="APP分类" sheetId="2" r:id="rId1"/>
@@ -5805,8 +5805,8 @@
   <sheetPr/>
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -15199,12 +15199,15 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" width="10"/>
+    <col min="1" max="1" width="9.76923076923077" customWidth="1"/>
+    <col min="2" max="2" width="10.0961538461538" customWidth="1"/>
+    <col min="3" max="3" width="13.9326923076923" customWidth="1"/>
+    <col min="4" max="4" width="11.7019230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:4">
@@ -16640,8 +16643,8 @@
   <sheetPr/>
   <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
